--- a/doc/My_WilsonII_BOM.xlsx
+++ b/doc/My_WilsonII_BOM.xlsx
@@ -47,6 +47,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4-Start 2mm pitch 300mm length</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F19" authorId="0">
       <text>
         <r>
@@ -56,8 +69,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">http://www.ebay.com/itm/300mm-Lead-Screw-3D-Printer-Z-Axis-Lead-Screw-300MM-Lead-Screw-8mm-Screw-Pitch-/221964889708?hash=item33ae236e6c:g:kMMAAOSwNphWaVu~
-</t>
+          <t>http://www.ebay.com/itm/3D-Printer-8mm-Lead-Screw-Rod-100-to-600mm-4-Start-Z-Axis-Linear-Rail-Bar-Shaft-/231542078422?var=&amp;hash=item35e8fbbbd6:m:mHy39Jnufnd7mCuy2oDygBg</t>
         </r>
       </text>
     </comment>
@@ -648,7 +660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
   <si>
     <t>Vertical frame piece (sides)</t>
   </si>
@@ -827,15 +839,9 @@
     <t>JDC</t>
   </si>
   <si>
-    <t>99-79610861</t>
-  </si>
-  <si>
     <t>99-79610879</t>
   </si>
   <si>
-    <t>99-67408443</t>
-  </si>
-  <si>
     <t>Printed Parts – Required</t>
   </si>
   <si>
@@ -1038,6 +1044,39 @@
   </si>
   <si>
     <t>Already Own</t>
+  </si>
+  <si>
+    <t>Mr Metric</t>
+  </si>
+  <si>
+    <t>M31072</t>
+  </si>
+  <si>
+    <t>M31047</t>
+  </si>
+  <si>
+    <t>M31050</t>
+  </si>
+  <si>
+    <t>M31056</t>
+  </si>
+  <si>
+    <t>M31057</t>
+  </si>
+  <si>
+    <t>M50303</t>
+  </si>
+  <si>
+    <t>M60010</t>
+  </si>
+  <si>
+    <t>M31011</t>
+  </si>
+  <si>
+    <t>M50006</t>
+  </si>
+  <si>
+    <t>M50013</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2026,7 @@
   <dimension ref="A2:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2006,21 +2045,21 @@
     <row r="2" spans="1:11">
       <c r="D2" s="61"/>
       <c r="E2" s="67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="59">
         <f>J95</f>
-        <v>498.71000000000004</v>
+        <v>524.87000000000012</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="68"/>
       <c r="K2" s="60">
         <f>K95</f>
-        <v>419.82000000000005</v>
+        <v>395.98</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2402,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="22">
-        <v>10.15</v>
+        <v>21.99</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>35</v>
@@ -2415,11 +2454,11 @@
       </c>
       <c r="J19" s="24">
         <f>IF(E19&gt;0,SUM(B19*E19),"")</f>
-        <v>20.3</v>
+        <v>43.98</v>
       </c>
       <c r="K19" s="25">
         <f>IF(E19&gt;0,IF(H19&gt;0,SUM(J19-(H19*E19)),J19),"")</f>
-        <v>20.3</v>
+        <v>43.98</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2657,7 +2696,7 @@
         <v>0.24</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
@@ -2686,13 +2725,13 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="19">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6">
@@ -2701,11 +2740,11 @@
       </c>
       <c r="J29" s="20">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="K29" s="23">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2724,7 +2763,7 @@
         <v>58</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6">
@@ -2753,7 +2792,7 @@
         <v>0.185</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
@@ -2785,7 +2824,7 @@
         <v>0.185</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
@@ -2813,21 +2852,27 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J33" s="20" t="str">
+      <c r="J33" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K33" s="23" t="str">
+        <v>0.24</v>
+      </c>
+      <c r="K33" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2839,21 +2884,27 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J34" s="20" t="str">
+      <c r="J34" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K34" s="23" t="str">
+        <v>0.76</v>
+      </c>
+      <c r="K34" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.76</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2869,10 +2920,10 @@
         <v>0.03</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6">
@@ -2897,21 +2948,27 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J36" s="20" t="str">
+      <c r="J36" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K36" s="23" t="str">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K36" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2949,21 +3006,27 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J38" s="20" t="str">
+      <c r="J38" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K38" s="23" t="str">
+        <v>0.44</v>
+      </c>
+      <c r="K38" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.44</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2975,21 +3038,27 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="E39" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J39" s="20" t="str">
+      <c r="J39" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K39" s="23" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K39" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3001,21 +3070,27 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="E40" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>135</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J40" s="20" t="str">
+      <c r="J40" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K40" s="23" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3027,21 +3102,27 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="E41" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J41" s="20" t="str">
+      <c r="J41" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K41" s="23" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="K41" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.36</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3053,26 +3134,32 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="E42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>137</v>
+      </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J42" s="20" t="str">
+      <c r="J42" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K42" s="23" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -3087,26 +3174,28 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="19">
         <v>50</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
       <c r="I44" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" si="2"/>
@@ -3114,27 +3203,29 @@
       </c>
       <c r="K44" s="43">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
       <c r="I45" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3147,22 +3238,24 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
       <c r="I46" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3175,22 +3268,24 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="32">
+        <v>1</v>
+      </c>
       <c r="I47" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3203,22 +3298,24 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
       <c r="I48" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3231,22 +3328,24 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
       <c r="I49" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3259,22 +3358,24 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3287,22 +3388,24 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="32">
+        <v>1</v>
+      </c>
       <c r="I51" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3315,22 +3418,24 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="32">
+        <v>1</v>
+      </c>
       <c r="I52" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3343,22 +3448,24 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="32">
+        <v>1</v>
+      </c>
       <c r="I53" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3371,22 +3478,24 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="32">
+        <v>1</v>
+      </c>
       <c r="I54" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3399,22 +3508,24 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="32">
+        <v>1</v>
+      </c>
       <c r="I55" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3427,22 +3538,24 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="H56" s="32">
+        <v>1</v>
+      </c>
       <c r="I56" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3455,22 +3568,24 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="H57" s="32">
+        <v>2</v>
+      </c>
       <c r="I57" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3483,22 +3598,24 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="32">
+        <v>2</v>
+      </c>
       <c r="I58" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3511,22 +3628,24 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2">
         <v>4</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="32">
+        <v>4</v>
+      </c>
       <c r="I59" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3539,22 +3658,24 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2">
         <v>4</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E60" s="19"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="32">
+        <v>4</v>
+      </c>
       <c r="I60" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J60" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3567,22 +3688,24 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" s="19"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="H61" s="32">
+        <v>1</v>
+      </c>
       <c r="I61" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3595,22 +3718,24 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E62" s="19"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="32">
+        <v>1</v>
+      </c>
       <c r="I62" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3623,22 +3748,24 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" s="19"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="32">
+        <v>1</v>
+      </c>
       <c r="I63" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="26" t="str">
         <f t="shared" si="2"/>
@@ -3651,22 +3778,24 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" s="38">
         <v>1</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="H64" s="21">
+        <v>1</v>
+      </c>
       <c r="I64" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="47" t="str">
         <f t="shared" si="2"/>
@@ -3679,7 +3808,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" s="79"/>
       <c r="C65" s="79"/>
@@ -3694,117 +3823,127 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="H66" s="32">
+        <v>1</v>
+      </c>
       <c r="I66" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="49"/>
       <c r="K66" s="50"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="32">
+        <v>1</v>
+      </c>
       <c r="I67" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="49"/>
       <c r="K67" s="50"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="32">
+        <v>1</v>
+      </c>
       <c r="I68" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="49"/>
       <c r="K68" s="50"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="32">
+        <v>2</v>
+      </c>
       <c r="I69" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" s="49"/>
       <c r="K69" s="50"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="38">
         <v>1</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="H70" s="21">
+        <v>1</v>
+      </c>
       <c r="I70" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="52"/>
       <c r="K70" s="53"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="79"/>
       <c r="C71" s="79"/>
@@ -3819,7 +3958,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
@@ -3849,20 +3988,20 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6">
         <v>3.92</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G73" s="54">
         <v>1001283607</v>
@@ -3885,7 +4024,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -3915,7 +4054,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -3941,7 +4080,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -3967,7 +4106,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -3997,7 +4136,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -4027,7 +4166,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
         <v>3</v>
@@ -4038,10 +4177,10 @@
         <v>1.83</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6">
@@ -4059,7 +4198,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -4089,7 +4228,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2">
         <v>12</v>
@@ -4103,7 +4242,7 @@
         <v>35</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H81" s="6">
         <v>12</v>
@@ -4123,7 +4262,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2">
         <v>2</v>
@@ -4137,7 +4276,7 @@
         <v>58</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H82" s="6">
         <v>2</v>
@@ -4155,18 +4294,18 @@
         <v/>
       </c>
       <c r="M82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2">
         <v>3</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
@@ -4188,7 +4327,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -4218,7 +4357,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2">
         <v>2</v>
@@ -4244,7 +4383,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2">
         <v>2</v>
@@ -4274,7 +4413,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -4304,7 +4443,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -4334,7 +4473,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2">
         <v>20</v>
@@ -4362,18 +4501,18 @@
         <v/>
       </c>
       <c r="M89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
         <v>2</v>
       </c>
       <c r="C90" s="77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D90" s="77"/>
       <c r="E90" s="77"/>
@@ -4395,13 +4534,13 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2">
         <v>4</v>
       </c>
       <c r="C91" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D91" s="77"/>
       <c r="E91" s="77"/>
@@ -4423,7 +4562,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -4453,7 +4592,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -4464,7 +4603,7 @@
         <v>79.989999999999995</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -4483,7 +4622,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="38">
         <v>1</v>
@@ -4514,11 +4653,11 @@
     <row r="95" spans="1:13">
       <c r="J95" s="31">
         <f>SUM(J7:J94)</f>
-        <v>498.71000000000004</v>
+        <v>524.87000000000012</v>
       </c>
       <c r="K95" s="57">
         <f>SUM(K7:K94)</f>
-        <v>419.82000000000005</v>
+        <v>395.98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/My_WilsonII_BOM.xlsx
+++ b/doc/My_WilsonII_BOM.xlsx
@@ -301,19 +301,6 @@
             <family val="2"/>
           </rPr>
           <t>4-wire bipolar, high torque preferrable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F72" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>http://www.ebay.com/itm/Lot-of-5-NEMA-17-Stepper-Motor-GT3-Minebea-Mill-Robot-RepRap-Makerbot-Prusa-S4-/321503057192?hash=item4adb135528:g:Jl4AAOSwLN5WjAOt</t>
         </r>
       </text>
     </comment>
@@ -2026,7 +2013,7 @@
   <dimension ref="A2:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2050,7 +2037,7 @@
       <c r="F2" s="68"/>
       <c r="G2" s="59">
         <f>J95</f>
-        <v>524.87000000000012</v>
+        <v>511.57000000000016</v>
       </c>
       <c r="H2" s="62"/>
       <c r="I2" s="69" t="s">
@@ -2059,7 +2046,7 @@
       <c r="J2" s="68"/>
       <c r="K2" s="60">
         <f>K95</f>
-        <v>395.98</v>
+        <v>377.18000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2652,14 +2639,12 @@
         <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="19">
-        <v>8</v>
+        <v>0.54</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>24</v>
@@ -2668,19 +2653,19 @@
         <v>57</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="K27" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3806,7 +3791,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:13">
       <c r="A65" s="78" t="s">
         <v>81</v>
       </c>
@@ -3821,7 +3806,7 @@
       <c r="J65" s="80"/>
       <c r="K65" s="81"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:13">
       <c r="A66" s="40" t="s">
         <v>82</v>
       </c>
@@ -3845,7 +3830,7 @@
       <c r="J66" s="49"/>
       <c r="K66" s="50"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:13">
       <c r="A67" s="40" t="s">
         <v>83</v>
       </c>
@@ -3869,7 +3854,7 @@
       <c r="J67" s="49"/>
       <c r="K67" s="50"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:13">
       <c r="A68" s="40" t="s">
         <v>84</v>
       </c>
@@ -3893,7 +3878,7 @@
       <c r="J68" s="49"/>
       <c r="K68" s="50"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:13">
       <c r="A69" s="40" t="s">
         <v>85</v>
       </c>
@@ -3917,7 +3902,7 @@
       <c r="J69" s="49"/>
       <c r="K69" s="50"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:13">
       <c r="A70" s="41" t="s">
         <v>86</v>
       </c>
@@ -3941,7 +3926,7 @@
       <c r="J70" s="52"/>
       <c r="K70" s="53"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:13">
       <c r="A71" s="78" t="s">
         <v>90</v>
       </c>
@@ -3956,7 +3941,7 @@
       <c r="J71" s="80"/>
       <c r="K71" s="81"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:13">
       <c r="A72" s="39" t="s">
         <v>91</v>
       </c>
@@ -3966,27 +3951,30 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6">
-        <v>7</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="54"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="32">
+        <v>5</v>
+      </c>
       <c r="I72" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J72" s="20">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20" t="str">
         <f t="shared" ref="J72:J94" si="4">IF(E72&gt;0,SUM(B72*E72),"")</f>
-        <v>35</v>
-      </c>
-      <c r="K72" s="43">
+        <v/>
+      </c>
+      <c r="K72" s="43" t="str">
         <f t="shared" ref="K72:K94" si="5">IF(E72&gt;0,IF(H72&gt;0,SUM(J72-(H72*E72)),J72),"")</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v/>
+      </c>
+      <c r="M72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="39" t="s">
         <v>92</v>
       </c>
@@ -4022,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:13">
       <c r="A74" s="39" t="s">
         <v>95</v>
       </c>
@@ -4052,7 +4040,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:13">
       <c r="A75" s="39" t="s">
         <v>96</v>
       </c>
@@ -4078,7 +4066,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:13">
       <c r="A76" s="39" t="s">
         <v>97</v>
       </c>
@@ -4104,7 +4092,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:13">
       <c r="A77" s="39" t="s">
         <v>98</v>
       </c>
@@ -4134,7 +4122,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:13">
       <c r="A78" s="39" t="s">
         <v>99</v>
       </c>
@@ -4164,7 +4152,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:13">
       <c r="A79" s="39" t="s">
         <v>100</v>
       </c>
@@ -4196,7 +4184,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:13">
       <c r="A80" s="39" t="s">
         <v>103</v>
       </c>
@@ -4546,10 +4534,12 @@
       <c r="E91" s="77"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="H91" s="6">
+        <v>4</v>
+      </c>
       <c r="I91" s="6">
         <f>SUM(B91-H91)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91" s="20" t="str">
         <f t="shared" si="4"/>
@@ -4558,6 +4548,9 @@
       <c r="K91" s="43" t="str">
         <f t="shared" si="5"/>
         <v/>
+      </c>
+      <c r="M91" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4653,11 +4646,11 @@
     <row r="95" spans="1:13">
       <c r="J95" s="31">
         <f>SUM(J7:J94)</f>
-        <v>524.87000000000012</v>
+        <v>511.57000000000016</v>
       </c>
       <c r="K95" s="57">
         <f>SUM(K7:K94)</f>
-        <v>395.98</v>
+        <v>377.18000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/doc/My_WilsonII_BOM.xlsx
+++ b/doc/My_WilsonII_BOM.xlsx
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t>Vertical frame piece (sides)</t>
   </si>
@@ -1009,9 +1009,6 @@
     <t>Filastruder</t>
   </si>
   <si>
-    <t>E2d v6 Hot end</t>
-  </si>
-  <si>
     <t>Power switch KCD1-104N (12mm x 19mm body)</t>
   </si>
   <si>
@@ -1064,6 +1061,12 @@
   </si>
   <si>
     <t>M50013</t>
+  </si>
+  <si>
+    <t>E2d v6 Hot end Lite</t>
+  </si>
+  <si>
+    <t>M10067</t>
   </si>
 </sst>
 </file>
@@ -1510,6 +1513,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1536,17 +1550,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2012,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2031,22 +2034,22 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="D2" s="61"/>
-      <c r="E2" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="68"/>
+      <c r="E2" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="73"/>
       <c r="G2" s="59">
         <f>J95</f>
-        <v>511.57000000000016</v>
+        <v>470.23500000000013</v>
       </c>
       <c r="H2" s="62"/>
-      <c r="I2" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="68"/>
+      <c r="I2" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="73"/>
       <c r="K2" s="60">
         <f>K95</f>
-        <v>377.18000000000006</v>
+        <v>325.86000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2056,10 +2059,10 @@
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
@@ -2083,19 +2086,19 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -2275,19 +2278,19 @@
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -2400,19 +2403,19 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
@@ -2449,19 +2452,19 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -2584,19 +2587,19 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -2644,28 +2647,28 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="19">
-        <v>0.54</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="6">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="2"/>
-        <v>29.700000000000003</v>
+        <v>23.484999999999999</v>
       </c>
       <c r="K27" s="23">
         <f t="shared" si="3"/>
-        <v>16.200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2713,10 +2716,10 @@
         <v>0.12</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6">
@@ -2841,10 +2844,10 @@
         <v>0.02</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
@@ -2873,10 +2876,10 @@
         <v>0.04</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
@@ -2905,10 +2908,10 @@
         <v>0.03</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6">
@@ -2937,10 +2940,10 @@
         <v>0.05</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6">
@@ -2965,21 +2968,27 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="19">
+        <v>3.44</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J37" s="20" t="str">
+      <c r="J37" s="20">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K37" s="23" t="str">
+        <v>6.88</v>
+      </c>
+      <c r="K37" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.88</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2995,10 +3004,10 @@
         <v>0.02</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6">
@@ -3027,10 +3036,10 @@
         <v>0.02</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6">
@@ -3059,10 +3068,10 @@
         <v>0.01</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6">
@@ -3091,10 +3100,10 @@
         <v>0.04</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6">
@@ -3123,10 +3132,10 @@
         <v>0.1</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
@@ -3143,19 +3152,19 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="81"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="71"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="39" t="s">
@@ -3792,19 +3801,19 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="81"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="40" t="s">
@@ -3927,19 +3936,19 @@
       <c r="K70" s="53"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="71"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="39" t="s">
@@ -3971,7 +3980,7 @@
         <v/>
       </c>
       <c r="M72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4282,7 +4291,7 @@
         <v/>
       </c>
       <c r="M82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4293,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
@@ -4401,7 +4410,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -4489,7 +4498,7 @@
         <v/>
       </c>
       <c r="M89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4499,11 +4508,11 @@
       <c r="B90" s="2">
         <v>2</v>
       </c>
-      <c r="C90" s="77" t="s">
+      <c r="C90" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -4527,11 +4536,11 @@
       <c r="B91" s="2">
         <v>4</v>
       </c>
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
@@ -4550,7 +4559,7 @@
         <v/>
       </c>
       <c r="M91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4585,7 +4594,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="39" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -4593,7 +4602,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6">
-        <v>79.989999999999995</v>
+        <v>37.99</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>119</v>
@@ -4606,16 +4615,16 @@
       </c>
       <c r="J93" s="20">
         <f t="shared" si="4"/>
-        <v>79.989999999999995</v>
+        <v>37.99</v>
       </c>
       <c r="K93" s="43">
         <f t="shared" si="5"/>
-        <v>79.989999999999995</v>
+        <v>37.99</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="38">
         <v>1</v>
@@ -4646,20 +4655,15 @@
     <row r="95" spans="1:13">
       <c r="J95" s="31">
         <f>SUM(J7:J94)</f>
-        <v>511.57000000000016</v>
+        <v>470.23500000000013</v>
       </c>
       <c r="K95" s="57">
         <f>SUM(K7:K94)</f>
-        <v>377.18000000000006</v>
+        <v>325.86000000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A71:K71"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A18:K18"/>
@@ -4668,6 +4672,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A14:K14"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A71:K71"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I10">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">

--- a/doc/My_WilsonII_BOM.xlsx
+++ b/doc/My_WilsonII_BOM.xlsx
@@ -1513,17 +1513,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1550,6 +1539,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2034,22 +2034,22 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="D2" s="61"/>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="59">
         <f>J95</f>
-        <v>470.23500000000013</v>
+        <v>468.67500000000007</v>
       </c>
       <c r="H2" s="62"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="68"/>
       <c r="K2" s="60">
         <f>K95</f>
-        <v>325.86000000000007</v>
+        <v>317.39999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2059,10 +2059,10 @@
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="79"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
@@ -2086,19 +2086,19 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -2278,19 +2278,19 @@
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -2403,19 +2403,19 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
@@ -2452,19 +2452,19 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="78"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -2482,10 +2482,12 @@
       <c r="E21" s="19"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="26" t="str">
         <f>IF(E21&gt;0,SUM(B21*E21),"")</f>
@@ -2512,10 +2514,12 @@
       <c r="E22" s="19"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="26" t="str">
         <f>IF(E22&gt;0,SUM(B22*E22),"")</f>
@@ -2542,10 +2546,12 @@
       <c r="E23" s="19"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="26" t="str">
         <f>IF(E23&gt;0,SUM(B23*E23),"")</f>
@@ -2565,41 +2571,43 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="16">
-        <v>8.4600000000000009</v>
+      <c r="E24" s="22">
+        <v>6.9</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
       <c r="I24" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="24">
         <f>IF(E24&gt;0,SUM(B24*E24),"")</f>
-        <v>8.4600000000000009</v>
+        <v>6.9</v>
       </c>
       <c r="K24" s="25">
         <f>IF(E24&gt;0,IF(H24&gt;0,SUM(J24-(H24*E24)),J24),"")</f>
-        <v>8.4600000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -3152,19 +3160,19 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="71"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="39" t="s">
@@ -3801,19 +3809,19 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="71"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="81"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="40" t="s">
@@ -3936,19 +3944,19 @@
       <c r="K70" s="53"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="71"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="81"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="39" t="s">
@@ -4508,11 +4516,11 @@
       <c r="B90" s="2">
         <v>2</v>
       </c>
-      <c r="C90" s="67" t="s">
+      <c r="C90" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -4536,11 +4544,11 @@
       <c r="B91" s="2">
         <v>4</v>
       </c>
-      <c r="C91" s="67" t="s">
+      <c r="C91" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
@@ -4655,15 +4663,20 @@
     <row r="95" spans="1:13">
       <c r="J95" s="31">
         <f>SUM(J7:J94)</f>
-        <v>470.23500000000013</v>
+        <v>468.67500000000007</v>
       </c>
       <c r="K95" s="57">
         <f>SUM(K7:K94)</f>
-        <v>325.86000000000007</v>
+        <v>317.39999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A71:K71"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A18:K18"/>
@@ -4672,11 +4685,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A71:K71"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I10">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
